--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="userCarProperties" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="systemTariffPrices" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t xml:space="preserve">D</t>
   </si>
@@ -78,6 +79,15 @@
   </si>
   <si>
     <t xml:space="preserve">SOCmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarif Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price orf buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price for sell</t>
   </si>
 </sst>
 </file>
@@ -559,8 +569,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.96484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -968,4 +978,75 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="18.08"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -78,10 +78,10 @@
     <t xml:space="preserve">7,5</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarif Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price orf buy [¢/kWh]</t>
+    <t xml:space="preserve">Tariff Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price for buy [¢/kWh]</t>
   </si>
   <si>
     <t xml:space="preserve">Price for sell [¢/kWh]</t>
@@ -426,7 +426,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,7 +508,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>5</v>
@@ -540,7 +540,7 @@
         <v>85</v>
       </c>
       <c r="J5" s="9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K5" s="9" t="n">
         <v>5</v>
@@ -1022,10 +1022,10 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="22.85"/>
   </cols>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t xml:space="preserve">HOME STORAGE BATERY</t>
   </si>
@@ -426,7 +426,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,27 +524,13 @@
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>85</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>85</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="n">
@@ -554,15 +540,29 @@
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="n">
@@ -604,7 +604,7 @@
   <dimension ref="B2:X7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -796,22 +796,22 @@
         <v>100</v>
       </c>
       <c r="E5" s="19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" s="19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H5" s="19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I5" s="19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J5" s="19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K5" s="17" t="n">
         <v>100</v>
@@ -861,25 +861,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>17</v>
+      <c r="E6" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="19" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="19" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="H6" s="19" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I6" s="19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J6" s="19" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>100</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F7" s="19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H7" s="19" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J7" s="19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K7" s="17" t="n">
         <v>100</v>
@@ -1025,7 +1025,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="22.85"/>
   </cols>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -425,8 +425,8 @@
   </sheetPr>
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,10 +496,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>85</v>
@@ -546,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>85</v>
@@ -603,8 +603,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="19" t="n">
         <v>100</v>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="19" t="n">
         <v>100</v>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="19" t="n">
         <v>50</v>
@@ -932,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="19" t="n">
         <v>100</v>
@@ -1022,7 +1022,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="22" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -425,8 +425,8 @@
   </sheetPr>
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,15 +522,29 @@
         <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="n">
@@ -540,29 +554,15 @@
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>85</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="n">
@@ -603,8 +603,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,13 +525,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" s="9" t="n">
         <v>85</v>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t xml:space="preserve">HOME STORAGE BATERY</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of Cars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,5</t>
   </si>
   <si>
     <t xml:space="preserve">Tariff Number</t>
@@ -425,7 +422,7 @@
   </sheetPr>
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -603,8 +600,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,65 +722,37 @@
         <v>100</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" s="19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H4" s="19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I4" s="19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J4" s="19" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N4" s="17" t="n">
-        <v>85</v>
-      </c>
-      <c r="O4" s="17" t="n">
-        <v>85</v>
-      </c>
-      <c r="P4" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="R4" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="S4" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="T4" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="U4" s="18" t="n">
-        <v>85</v>
-      </c>
-      <c r="V4" s="18" t="n">
-        <v>80</v>
-      </c>
-      <c r="W4" s="18" t="n">
-        <v>80</v>
-      </c>
-      <c r="X4" s="18" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="n">
@@ -813,48 +782,20 @@
       <c r="J5" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" s="17" t="n">
-        <v>85</v>
-      </c>
-      <c r="O5" s="17" t="n">
-        <v>85</v>
-      </c>
-      <c r="P5" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="R5" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="S5" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="T5" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="U5" s="18" t="n">
-        <v>86</v>
-      </c>
-      <c r="V5" s="18" t="n">
-        <v>81</v>
-      </c>
-      <c r="W5" s="18" t="n">
-        <v>80</v>
-      </c>
-      <c r="X5" s="18" t="n">
-        <v>50</v>
-      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="n">
@@ -884,119 +825,63 @@
       <c r="J6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17" t="n">
-        <v>87</v>
-      </c>
-      <c r="O6" s="17" t="n">
-        <v>82</v>
-      </c>
-      <c r="P6" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>50</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18" t="n">
-        <v>87</v>
-      </c>
-      <c r="V6" s="18" t="n">
-        <v>82</v>
-      </c>
-      <c r="W6" s="18" t="n">
-        <v>80</v>
-      </c>
-      <c r="X6" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="19" t="n">
         <v>100</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G7" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H7" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I7" s="19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="M7" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N7" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="O7" s="17" t="n">
-        <v>83</v>
-      </c>
-      <c r="P7" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="R7" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="S7" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="U7" s="18" t="n">
-        <v>88</v>
-      </c>
-      <c r="V7" s="18" t="n">
-        <v>83</v>
-      </c>
-      <c r="W7" s="18" t="n">
-        <v>80</v>
-      </c>
-      <c r="X7" s="18" t="n">
-        <v>50</v>
-      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1032,13 +917,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,22 +808,22 @@
         <v>50</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H6" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I6" s="19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J6" s="19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -906,8 +906,8 @@
   </sheetPr>
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -422,8 +422,8 @@
   </sheetPr>
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,7 +601,7 @@
   <dimension ref="B2:X7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="19" t="n">
         <v>100</v>
@@ -906,7 +906,7 @@
   </sheetPr>
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -422,8 +422,8 @@
   </sheetPr>
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,16 +845,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="19" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" s="19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="19" t="n">
         <v>85</v>
@@ -907,7 +907,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="B2:X7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,28 +716,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="19" t="n">
         <v>100</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H4" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I4" s="19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J4" s="19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -759,28 +759,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="19" t="n">
         <v>100</v>
       </c>
       <c r="E5" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" s="19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H5" s="19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I5" s="19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J5" s="19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -802,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="19" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="19" t="n">
         <v>85</v>
@@ -907,7 +907,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userInfo.xlsx
+++ b/ImportData/userInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userHomeProperties" sheetId="1" state="visible" r:id="rId2"/>
@@ -423,7 +423,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="B2:X7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,8 +906,8 @@
   </sheetPr>
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
